--- a/C# D11/Notes.xlsx
+++ b/C# D11/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engmt\Desktop\C# Learn\C# D11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Career180\C# D11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07984A49-874C-4FDB-8DF9-7CF8E32F75DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0E7A1A-4F88-41AD-8077-9CADA46E08D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="1470" windowWidth="21600" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Ado.Net</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>col</t>
+  </si>
+  <si>
+    <t>--------</t>
   </si>
 </sst>
 </file>
@@ -556,9 +559,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,85 +658,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,8 +693,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>190965</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -710,7 +713,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -755,8 +758,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>15315</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Ink 2">
@@ -775,7 +778,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Ink 2">
@@ -820,8 +823,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>221805</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Ink 3">
@@ -840,7 +843,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Ink 3">
@@ -885,8 +888,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>238845</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -905,7 +908,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -950,8 +953,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>236805</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -970,7 +973,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -1015,8 +1018,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>195045</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Ink 6">
@@ -1035,7 +1038,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Ink 6">
@@ -1080,8 +1083,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>166455</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -1100,7 +1103,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -1145,8 +1148,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>204555</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -1165,7 +1168,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -1210,8 +1213,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>109305</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Ink 11">
@@ -1230,7 +1233,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Ink 11">
@@ -1275,8 +1278,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>39585</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Ink 12">
@@ -1295,7 +1298,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Ink 12">
@@ -1340,8 +1343,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>174120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Ink 13">
@@ -1360,7 +1363,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Ink 13">
@@ -1405,8 +1408,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>70005</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -1425,7 +1428,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -1470,8 +1473,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>200730</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -1490,7 +1493,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -1535,8 +1538,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>219030</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink">
+      <mc:Choice Requires="xdr14 aink">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="Ink 17">
@@ -1555,7 +1558,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="Ink 17">
@@ -1600,8 +1603,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>126705</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Ink 20">
@@ -1620,7 +1623,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Ink 20">
@@ -1665,8 +1668,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>171660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="Ink 21">
@@ -1685,7 +1688,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="Ink 21">
@@ -1730,8 +1733,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>38985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -1750,7 +1753,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -1795,8 +1798,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>197040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Ink 23">
@@ -1815,7 +1818,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Ink 23">
@@ -2630,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A8F4E7-851B-4F70-B675-72189B308398}">
-  <dimension ref="C1:AM80"/>
+  <dimension ref="C1:AM107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y55" workbookViewId="0">
-      <selection activeCell="AF66" sqref="AF66"/>
+    <sheetView tabSelected="1" topLeftCell="Y93" workbookViewId="0">
+      <selection activeCell="AA107" sqref="AA107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2643,18 +2646,18 @@
   <sheetData>
     <row r="1" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
@@ -2663,276 +2666,157 @@
     </row>
     <row r="5" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="12"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="14"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="N8" s="8"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="N11" s="8"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="N12" s="8"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="N13" s="8"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="N14" s="8"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
     </row>
     <row r="18" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="14"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="9"/>
     </row>
     <row r="19" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="17"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="7"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
@@ -2954,12 +2838,12 @@
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="L25" s="1" t="s">
@@ -2988,22 +2872,22 @@
       <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="20"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="G32" s="1">
@@ -3021,50 +2905,50 @@
     </row>
     <row r="33" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:37" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="20"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
     </row>
     <row r="35" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="3:37" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="20"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="26"/>
     </row>
     <row r="40" spans="3:37" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
@@ -3075,25 +2959,25 @@
       </c>
     </row>
     <row r="42" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
       <c r="M42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="3:37" x14ac:dyDescent="0.25">
       <c r="M44" s="1" t="s">
@@ -3101,12 +2985,12 @@
       </c>
     </row>
     <row r="48" spans="3:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="W48" s="2" t="s">
+      <c r="W48" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
       <c r="AF48" s="1" t="s">
         <v>37</v>
       </c>
@@ -3115,104 +2999,100 @@
       </c>
     </row>
     <row r="49" spans="5:39" x14ac:dyDescent="0.25">
-      <c r="AE49" s="9"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="11"/>
-      <c r="AJ49" s="9"/>
-      <c r="AK49" s="10" t="s">
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="4"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL49" s="11"/>
+      <c r="AL49" s="4"/>
     </row>
     <row r="50" spans="5:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
       <c r="L50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="22" t="s">
+      <c r="V50" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="14"/>
-      <c r="AJ50" s="12"/>
-      <c r="AK50" s="13"/>
-      <c r="AL50" s="14"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AE50" s="8"/>
+      <c r="AG50" s="9"/>
+      <c r="AJ50" s="8"/>
+      <c r="AL50" s="9"/>
     </row>
     <row r="51" spans="5:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="14"/>
-      <c r="AJ51" s="29" t="s">
+      <c r="AE51" s="8"/>
+      <c r="AG51" s="9"/>
+      <c r="AJ51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AK51" s="30" t="s">
+      <c r="AK51" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AL51" s="31" t="s">
+      <c r="AL51" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="5:39" x14ac:dyDescent="0.25">
-      <c r="V52" s="22" t="s">
+      <c r="V52" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="14"/>
-      <c r="AJ52" s="26">
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AE52" s="8"/>
+      <c r="AG52" s="9"/>
+      <c r="AJ52" s="13">
         <v>1</v>
       </c>
-      <c r="AK52" s="27" t="s">
+      <c r="AK52" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AL52" s="28" t="s">
+      <c r="AL52" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="5:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE53" s="15"/>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="17"/>
-      <c r="AJ53" s="23">
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="7"/>
+      <c r="AJ53" s="10">
         <v>2</v>
       </c>
-      <c r="AK53" s="24" t="s">
+      <c r="AK53" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AL53" s="25" t="s">
+      <c r="AL53" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="5:39" x14ac:dyDescent="0.25">
-      <c r="W54" s="2" t="s">
+      <c r="W54" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
     </row>
     <row r="55" spans="5:39" x14ac:dyDescent="0.25">
       <c r="L55" s="1" t="s">
@@ -3241,41 +3121,38 @@
       </c>
     </row>
     <row r="59" spans="5:39" x14ac:dyDescent="0.25">
-      <c r="AE59" s="9"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="11"/>
-      <c r="AJ59" s="9"/>
-      <c r="AK59" s="10" t="s">
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="4"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AL59" s="11"/>
+      <c r="AL59" s="4"/>
     </row>
     <row r="60" spans="5:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="AE60" s="12"/>
-      <c r="AF60" s="13"/>
-      <c r="AG60" s="14"/>
-      <c r="AJ60" s="12"/>
-      <c r="AK60" s="13"/>
-      <c r="AL60" s="14"/>
+      <c r="H60" s="22"/>
+      <c r="AE60" s="8"/>
+      <c r="AG60" s="9"/>
+      <c r="AJ60" s="8"/>
+      <c r="AL60" s="9"/>
     </row>
     <row r="61" spans="5:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE61" s="12"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="14"/>
-      <c r="AJ61" s="29" t="s">
+      <c r="AE61" s="8"/>
+      <c r="AG61" s="9"/>
+      <c r="AJ61" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AK61" s="30" t="s">
+      <c r="AK61" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AL61" s="31" t="s">
+      <c r="AL61" s="18" t="s">
         <v>42</v>
       </c>
       <c r="AM61" s="1" t="s">
@@ -3283,16 +3160,15 @@
       </c>
     </row>
     <row r="62" spans="5:39" x14ac:dyDescent="0.25">
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="14"/>
-      <c r="AJ62" s="26">
+      <c r="AE62" s="8"/>
+      <c r="AG62" s="9"/>
+      <c r="AJ62" s="13">
         <v>1</v>
       </c>
-      <c r="AK62" s="27" t="s">
+      <c r="AK62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AL62" s="28" t="s">
+      <c r="AL62" s="15" t="s">
         <v>44</v>
       </c>
       <c r="AM62" s="1">
@@ -3300,66 +3176,66 @@
       </c>
     </row>
     <row r="63" spans="5:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE63" s="15"/>
-      <c r="AF63" s="16"/>
-      <c r="AG63" s="17"/>
-      <c r="AJ63" s="23">
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="7"/>
+      <c r="AJ63" s="10">
         <v>2</v>
       </c>
-      <c r="AK63" s="24" t="s">
+      <c r="AK63" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AL63" s="25" t="s">
+      <c r="AL63" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="5:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE64" s="9"/>
-      <c r="AF64" s="10" t="s">
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AG64" s="11"/>
+      <c r="AG64" s="4"/>
     </row>
     <row r="65" spans="8:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="AE65" s="29" t="s">
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="AE65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AF65" s="30" t="s">
+      <c r="AF65" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AG65" s="31" t="s">
+      <c r="AG65" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="66" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="AE66" s="26">
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="AE66" s="13">
         <v>1</v>
       </c>
-      <c r="AF66" s="27" t="s">
+      <c r="AF66" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AG66" s="28" t="s">
+      <c r="AG66" s="15" t="s">
         <v>44</v>
       </c>
       <c r="AH66" s="1">
@@ -3367,27 +3243,27 @@
       </c>
     </row>
     <row r="67" spans="8:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AE67" s="23">
+      <c r="AE67" s="10">
         <v>2</v>
       </c>
-      <c r="AF67" s="24" t="s">
+      <c r="AF67" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AG67" s="25" t="s">
+      <c r="AG67" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="68" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="I68" s="32" t="s">
+      <c r="I68" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
       <c r="AE68" s="1">
         <v>3</v>
       </c>
@@ -3402,14 +3278,14 @@
       <c r="H69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
     </row>
     <row r="70" spans="8:34" x14ac:dyDescent="0.25">
       <c r="J70" s="1" t="s">
@@ -3424,66 +3300,66 @@
       <c r="N75" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q75" s="33" t="s">
+      <c r="Q75" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="R75" s="34" t="s">
+      <c r="R75" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="S75" s="34" t="s">
+      <c r="S75" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T75" s="35" t="s">
+      <c r="T75" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="Q76" s="12">
+      <c r="Q76" s="8">
         <v>1</v>
       </c>
-      <c r="R76" s="13" t="s">
+      <c r="R76" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S76" s="13" t="s">
+      <c r="S76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T76" s="14" t="s">
+      <c r="T76" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="77" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="Q77" s="12">
+      <c r="Q77" s="8">
         <v>2</v>
       </c>
-      <c r="R77" s="13" t="s">
+      <c r="R77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S77" s="13" t="s">
+      <c r="S77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T77" s="14" t="s">
+      <c r="T77" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="8:34" x14ac:dyDescent="0.25">
-      <c r="Q78" s="12">
+      <c r="Q78" s="8">
         <v>3</v>
       </c>
-      <c r="R78" s="13" t="s">
+      <c r="R78" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S78" s="13" t="s">
+      <c r="S78" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T78" s="14" t="s">
+      <c r="T78" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="79" spans="8:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q79" s="15"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="17"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="7"/>
     </row>
     <row r="80" spans="8:34" x14ac:dyDescent="0.25">
       <c r="K80" s="1" t="s">
@@ -3493,8 +3369,17 @@
         <v>71</v>
       </c>
     </row>
+    <row r="107" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA107" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:F3"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F31:S31"/>
+    <mergeCell ref="D34:S34"/>
     <mergeCell ref="W54:Z54"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="I65:P66"/>
@@ -3505,10 +3390,6 @@
     <mergeCell ref="V50:AB50"/>
     <mergeCell ref="V52:AB52"/>
     <mergeCell ref="W48:Z48"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F31:S31"/>
-    <mergeCell ref="D34:S34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
